--- a/LoopGame/LoopGame/Content/csv/TestStage07.xlsx
+++ b/LoopGame/LoopGame/Content/csv/TestStage07.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -406,7 +406,7 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -415,16 +415,16 @@
         <v>1</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1">
         <v>1</v>
@@ -447,10 +447,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -459,31 +459,31 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -500,22 +500,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -547,43 +547,43 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>5</v>
@@ -600,19 +600,19 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -621,13 +621,13 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -650,34 +650,34 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -815,16 +815,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>1</v>
